--- a/InterFaceTest/testData/data.xlsx
+++ b/InterFaceTest/testData/data.xlsx
@@ -38,10 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>American</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Canadian</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,6 +87,10 @@
   </si>
   <si>
     <t>简历状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>United States</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -471,7 +471,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.75" defaultRowHeight="29.25" customHeight="1"/>
@@ -493,19 +493,18 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="str">
-        <f>LOWER(TRUE)</f>
-        <v>true</v>
+        <v>18</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1">
         <v>12</v>
@@ -514,19 +513,18 @@
         <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="29.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="2" t="str">
-        <f>LOWER(TRUE)</f>
-        <v>true</v>
+        <v>11</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2">
         <v>12</v>
@@ -535,37 +533,35 @@
         <v>12</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="29.25" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3" t="str">
-        <f>LOWER(FALSE)</f>
-        <v>false</v>
+        <v>6</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D4" s="1">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1">
-        <v>12</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="29.25" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="str">
-        <f t="shared" ref="B4:B9" si="0">LOWER(TRUE)</f>
-        <v>true</v>
+        <v>7</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2">
@@ -575,83 +571,79 @@
         <v>12</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="29.25" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>true</v>
+        <v>8</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1">
         <v>12</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="29.25" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>true</v>
+        <v>9</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2">
         <v>12</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="29.25" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>true</v>
+        <v>10</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="1">
         <v>11</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="29.25" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2" t="str">
-        <f>LOWER(TRUE)</f>
-        <v>true</v>
+        <v>5</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2">
         <v>11</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="29.25" customHeight="1">
@@ -703,9 +695,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="B4" formula="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 

--- a/InterFaceTest/testData/data.xlsx
+++ b/InterFaceTest/testData/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>国籍</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,19 +78,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pending</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>passed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>简历状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>United States</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Passed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pending</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -493,12 +497,12 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -513,7 +517,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="29.25" customHeight="1">
@@ -533,7 +537,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="29.25" customHeight="1">
@@ -553,7 +557,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="29.25" customHeight="1">
@@ -563,7 +567,9 @@
       <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="D5" s="2">
         <v>12</v>
       </c>
@@ -571,7 +577,7 @@
         <v>12</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="29.25" customHeight="1">
@@ -587,9 +593,11 @@
       <c r="D6" s="1">
         <v>12</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
       <c r="F6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="29.25" customHeight="1">
@@ -602,12 +610,14 @@
       <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
       <c r="E7" s="2">
         <v>12</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="29.25" customHeight="1">
@@ -623,9 +633,11 @@
       <c r="D8" s="1">
         <v>11</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
       <c r="F8" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="29.25" customHeight="1">
@@ -638,12 +650,14 @@
       <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
       <c r="E9" s="2">
         <v>11</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="29.25" customHeight="1">

--- a/InterFaceTest/testData/data.xlsx
+++ b/InterFaceTest/testData/data.xlsx
@@ -38,30 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Canadian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>British</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Irish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Australian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>New Zealander</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>South African</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Japan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -95,6 +71,30 @@
   </si>
   <si>
     <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Australia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Zealand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ireland</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>South Africa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Canada</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -475,10 +475,13 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.75" defaultRowHeight="29.25" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="29.25" customHeight="1">
       <c r="A1" s="4" t="s">
@@ -497,18 +500,18 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1">
         <v>12</v>
@@ -517,18 +520,18 @@
         <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="29.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2">
         <v>12</v>
@@ -537,18 +540,18 @@
         <v>12</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="29.25" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1">
         <v>12</v>
@@ -557,18 +560,18 @@
         <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="29.25" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2">
         <v>12</v>
@@ -577,18 +580,18 @@
         <v>12</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="29.25" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B6" s="3">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1">
         <v>12</v>
@@ -597,18 +600,18 @@
         <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="29.25" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
@@ -617,18 +620,18 @@
         <v>12</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="29.25" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B8" s="3">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1">
         <v>11</v>
@@ -637,18 +640,18 @@
         <v>0</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="29.25" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
@@ -657,7 +660,7 @@
         <v>11</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="29.25" customHeight="1">

--- a/InterFaceTest/testData/data.xlsx
+++ b/InterFaceTest/testData/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>国籍</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,6 +95,10 @@
   </si>
   <si>
     <t>Canada</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Passed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -475,7 +479,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.75" defaultRowHeight="29.25" customHeight="1"/>
@@ -664,19 +668,44 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1">
+        <v>13</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>13</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="29.25" customHeight="1">
       <c r="A12" s="1"/>
